--- a/Resources/PWM calculations.xlsx
+++ b/Resources/PWM calculations.xlsx
@@ -1,24 +1,114 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="24" windowWidth="20100" windowHeight="9264"/>
+    <workbookView xWindow="0" yWindow="24" windowWidth="20100" windowHeight="9264" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="PWM-backlight" sheetId="1" r:id="rId1"/>
+    <sheet name="RC-Backlight" sheetId="3" r:id="rId2"/>
+    <sheet name="RC-Contrast" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PWM-backlight'!$A$1:$B$4</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
-  <si>
-    <t>MHz</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+  <si>
+    <t>Resolution:</t>
+  </si>
+  <si>
+    <r>
+      <t>PWM</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(frequency)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PWM</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(period)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TMR2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(prescale)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>PR2:</t>
   </si>
   <si>
     <r>
@@ -49,73 +139,278 @@
     </r>
   </si>
   <si>
-    <t>:1</t>
-  </si>
-  <si>
-    <t>Timer prescale:</t>
-  </si>
-  <si>
-    <t>PRx value:</t>
-  </si>
-  <si>
-    <t>Maximum resolution:</t>
-  </si>
-  <si>
-    <t>PWM period:</t>
-  </si>
-  <si>
-    <t>ms</t>
-  </si>
-  <si>
-    <t>kHz</t>
-  </si>
-  <si>
-    <t>Frequency:</t>
-  </si>
-  <si>
-    <t>bits</t>
-  </si>
-  <si>
-    <t>0x</t>
-  </si>
-  <si>
-    <t>uF</t>
+    <t>Voltage</t>
   </si>
   <si>
     <t>R:</t>
   </si>
   <si>
-    <t>1F</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>Ω</t>
-  </si>
-  <si>
-    <t>C (minimum):</t>
+    <t>C:</t>
+  </si>
+  <si>
+    <r>
+      <t>Frequency</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(PWM)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Frequency</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(cut-off)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Voltage:</t>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ripple</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Duty cycle:</t>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Attenuation:</t>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ripple (at 50% duty)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>RC (τ):</t>
+  </si>
+  <si>
+    <r>
+      <t>Rise/fall time</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (10-90%)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Rise/fall time</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (0-90%)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Rise/fall time</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (0-99%)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+  <numFmts count="17">
+    <numFmt numFmtId="164" formatCode="0\ &quot;bits&quot;"/>
+    <numFmt numFmtId="165" formatCode="0\ &quot;MHz&quot;"/>
+    <numFmt numFmtId="166" formatCode="0&quot;:1&quot;"/>
+    <numFmt numFmtId="167" formatCode="0.00\ &quot;kHz&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.0\ &quot;V&quot;"/>
+    <numFmt numFmtId="169" formatCode="0.0\ &quot;mV&quot;"/>
+    <numFmt numFmtId="170" formatCode="0.00\ &quot;μs&quot;"/>
+    <numFmt numFmtId="174" formatCode="#,##0.0\ &quot;Hz&quot;"/>
+    <numFmt numFmtId="175" formatCode="0.0\ &quot;us&quot;"/>
+    <numFmt numFmtId="176" formatCode="0\ &quot;%&quot;"/>
+    <numFmt numFmtId="177" formatCode="0.00\ &quot;V&quot;"/>
+    <numFmt numFmtId="178" formatCode="#,#00\ &quot;dB&quot;"/>
+    <numFmt numFmtId="179" formatCode="0.0\ &quot;ms&quot;"/>
+    <numFmt numFmtId="180" formatCode="0\ &quot;uF&quot;"/>
+    <numFmt numFmtId="181" formatCode="0.0\ &quot;Ω&quot;"/>
+    <numFmt numFmtId="186" formatCode="0\ &quot;kHz&quot;"/>
+    <numFmt numFmtId="187" formatCode="0\ &quot;kΩ&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -130,17 +425,8 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,7 +441,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -172,16 +464,70 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="186" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="187" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,150 +830,173 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" customWidth="1"/>
-    <col min="3" max="3" width="6.77734375" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" customWidth="1"/>
-    <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="12" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="8" width="8.88671875" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="12" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1">
+        <f>B1*1000*1000</f>
+        <v>32000000</v>
+      </c>
+      <c r="F1" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="6">
+      <c r="G1" s="1">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1">
+        <v>32</v>
+      </c>
+      <c r="L1" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2">
+        <v>63</v>
+      </c>
+      <c r="D2" s="1">
+        <f>B2</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <f>B3</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6">
+        <f>B4</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1">
-        <f>B1*1000*1000</f>
-        <v>4000000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="6">
+      <c r="B6" s="7">
+        <f>D6</f>
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <f>FLOOR(LOG(4*(D2+1))/LOG(2),1)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="21"/>
+      <c r="B7" s="8">
+        <f>D7*1000</f>
+        <v>19.53125</v>
+      </c>
+      <c r="D7" s="1">
+        <f>D4/POWER(2,D6)</f>
+        <v>1.953125E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B8" s="9">
+        <f>D8/1000</f>
+        <v>125</v>
+      </c>
+      <c r="D8" s="1">
+        <f>D1/D3/POWER(2,D6)</f>
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1">
-        <f>B2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1">
-        <f>HEX2DEC(B3)</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4">
-        <f>E5*1000</f>
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1">
-        <f>(E3+1)*4*(1/E1)*E2</f>
-        <v>3.1999999999999999E-5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4">
-        <f>E6/1000</f>
-        <v>31.25</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B9" s="10">
+        <f>D9*1000*1000</f>
         <v>8</v>
       </c>
-      <c r="E6" s="1">
-        <f>1/E5</f>
-        <v>31250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5">
-        <f>LOG(4*(E3+1))/LOG(2)</f>
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4">
-        <f>5/POWER(2,B7)</f>
-        <v>3.90625E-2</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="6">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="3">
-        <f>E11*1000*1000</f>
-        <v>319.99999999999994</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="1">
-        <f>100 * (1/E6)/B10</f>
-        <v>3.1999999999999997E-4</v>
+      <c r="D9" s="1">
+        <f>(D2+1)*4*(1/D1)*D3</f>
+        <v>7.9999999999999996E-6</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B4"/>
+  <mergeCells count="1">
+    <mergeCell ref="A6:A7"/>
+  </mergeCells>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+      <formula1>$F$3:$H$3</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>0</formula1>
+      <formula2>255</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+      <formula1>$F$1:$L$1</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+      <formula1>1.8</formula1>
+      <formula2>5.5</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -635,24 +1004,446 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="25">
+        <f>'PWM-backlight'!B8</f>
+        <v>125</v>
+      </c>
+      <c r="D1">
+        <f>B1*1000</f>
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="26">
+        <f>'PWM-backlight'!B4</f>
+        <v>5</v>
+      </c>
+      <c r="D2" s="13">
+        <f>B2</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="23">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D3" s="24">
+        <f>B3</f>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="22">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <f>B4/1000/1000</f>
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="15">
+        <v>50</v>
+      </c>
+      <c r="D5">
+        <f>B5/100</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="16">
+        <f>D7</f>
+        <v>2.5</v>
+      </c>
+      <c r="D7">
+        <f>D2*D5</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="17">
+        <f>D8*1000</f>
+        <v>45.453784232618858</v>
+      </c>
+      <c r="D8">
+        <f>2*D2*(0.5-ABS(D5-0.5))*D12*PI()/2</f>
+        <v>4.5453784232618859E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="17">
+        <f>D9*1000</f>
+        <v>45.453784232618858</v>
+      </c>
+      <c r="D9">
+        <f>2*D2*0.5*D12*PI()/2</f>
+        <v>4.5453784232618859E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="12">
+        <f>D10</f>
+        <v>723.43155950861501</v>
+      </c>
+      <c r="D10">
+        <f>1/(2*PI()*D3*D4)</f>
+        <v>723.43155950861501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="14">
+        <f>D11*1000*1000</f>
+        <v>220.00000000000003</v>
+      </c>
+      <c r="D11">
+        <f>D4*D3</f>
+        <v>2.2000000000000003E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="18">
+        <f>-20*LOG(D12)</f>
+        <v>44.750396706557758</v>
+      </c>
+      <c r="D12">
+        <f>1/SQRT(1+(D1/D10)^2)</f>
+        <v>5.7873555542829955E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="19">
+        <f>D13*1000</f>
+        <v>0.48338940701396838</v>
+      </c>
+      <c r="D13">
+        <f>(LN(1/(1-0.9))-LN(1/(1-0.1)))*D11</f>
+        <v>4.833894070139684E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="19">
+        <f>D14*1000</f>
+        <v>0.50656872045869017</v>
+      </c>
+      <c r="D14" s="20">
+        <f>LN(1/(1-0.9))*D11</f>
+        <v>5.065687204586902E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="19">
+        <f>D15*1000</f>
+        <v>1.0131374409173801</v>
+      </c>
+      <c r="D15">
+        <f>LN(1/(1-0.99))*D11</f>
+        <v>1.0131374409173802E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+      <formula1>0.1</formula1>
+      <formula2>10000</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>1.8</formula1>
+      <formula2>5.5</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+      <formula1>0.1</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+      <formula1>10</formula1>
+      <formula2>10000</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="25">
+        <f>'PWM-backlight'!B8</f>
+        <v>125</v>
+      </c>
+      <c r="D1">
+        <f>B1*1000</f>
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="26">
+        <f>'PWM-backlight'!B4</f>
+        <v>5</v>
+      </c>
+      <c r="D2" s="13">
+        <f>B2</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="27">
+        <v>10</v>
+      </c>
+      <c r="D3" s="24">
+        <f>B3*1000</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="22">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <f>B4/1000/1000</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="15">
+        <v>50</v>
+      </c>
+      <c r="D5">
+        <f>B5/100</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="16">
+        <f>D7</f>
+        <v>2.5</v>
+      </c>
+      <c r="D7">
+        <f>D2*D5</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="17">
+        <f>D8*1000</f>
+        <v>9.9999999991894281E-2</v>
+      </c>
+      <c r="D8">
+        <f>2*D2*(0.5-ABS(D5-0.5))*D12*PI()/2</f>
+        <v>9.9999999991894279E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="17">
+        <f>D9*1000</f>
+        <v>9.9999999991894281E-2</v>
+      </c>
+      <c r="D9">
+        <f>2*D2*0.5*D12*PI()/2</f>
+        <v>9.9999999991894279E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="12">
+        <f>D10</f>
+        <v>1.5915494309189531</v>
+      </c>
+      <c r="D10">
+        <f>1/(2*PI()*D3*D4)</f>
+        <v>1.5915494309189531</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="14">
+        <f>D11*1000*1000</f>
+        <v>100000</v>
+      </c>
+      <c r="D11">
+        <f>D4*D3</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="18">
+        <f>-20*LOG(D12)</f>
+        <v>97.901797628027495</v>
+      </c>
+      <c r="D12">
+        <f>1/SQRT(1+(D1/D10)^2)</f>
+        <v>1.2732395446319575E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="19">
+        <f>D13*1000</f>
+        <v>219.72245773362198</v>
+      </c>
+      <c r="D13">
+        <f>(LN(1/(1-0.9))-LN(1/(1-0.1)))*D11</f>
+        <v>0.21972245773362198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="19">
+        <f>D14*1000</f>
+        <v>230.25850929940461</v>
+      </c>
+      <c r="D14" s="20">
+        <f>LN(1/(1-0.9))*D11</f>
+        <v>0.23025850929940461</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="19">
+        <f>D15*1000</f>
+        <v>460.5170185988091</v>
+      </c>
+      <c r="D15">
+        <f>LN(1/(1-0.99))*D11</f>
+        <v>0.46051701859880911</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+      <formula1>10</formula1>
+      <formula2>10000</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+      <formula1>0.1</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>1.8</formula1>
+      <formula2>5.5</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+      <formula1>0.1</formula1>
+      <formula2>10000</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>